--- a/sample.xlsx
+++ b/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Uday devgan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karthik</t>
   </si>
 </sst>
 </file>
@@ -118,12 +121,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -133,15 +136,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -169,6 +172,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
